--- a/2. 연구사업(2023년)/6. 분석결과/data_analysis/Log chart_양이온 표시기준 실제값 차이(Log변환)/Mg/mg_data.xlsx
+++ b/2. 연구사업(2023년)/6. 분석결과/data_analysis/Log chart_양이온 표시기준 실제값 차이(Log변환)/Mg/mg_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\R_coding\[사업] 2023_혼합음료\4. 양이온 표시기준 실제값 차이(Log변환)\Mg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Study\2. 연구사업(2023년)\6. 분석결과\data_analysis\Log chart_양이온 표시기준 실제값 차이(Log변환)\Mg\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,236 +24,6 @@
     <t>name_new</t>
   </si>
   <si>
-    <t>m-AB</t>
-  </si>
-  <si>
-    <t>m-AC</t>
-  </si>
-  <si>
-    <t>m-AD</t>
-  </si>
-  <si>
-    <t>m-AE</t>
-  </si>
-  <si>
-    <t>m-AF</t>
-  </si>
-  <si>
-    <t>m-AG</t>
-  </si>
-  <si>
-    <t>m-AH</t>
-  </si>
-  <si>
-    <t>m-AI</t>
-  </si>
-  <si>
-    <t>m-AJ</t>
-  </si>
-  <si>
-    <t>m-AK</t>
-  </si>
-  <si>
-    <t>m-AL</t>
-  </si>
-  <si>
-    <t>m-AM</t>
-  </si>
-  <si>
-    <t>m-AN</t>
-  </si>
-  <si>
-    <t>m-AO</t>
-  </si>
-  <si>
-    <t>m-AP</t>
-  </si>
-  <si>
-    <t>m-AQ</t>
-  </si>
-  <si>
-    <t>m-AR</t>
-  </si>
-  <si>
-    <t>m-AS</t>
-  </si>
-  <si>
-    <t>m-AT</t>
-  </si>
-  <si>
-    <t>m-AU</t>
-  </si>
-  <si>
-    <t>m-AV</t>
-  </si>
-  <si>
-    <t>m-AW</t>
-  </si>
-  <si>
-    <t>m-AX</t>
-  </si>
-  <si>
-    <t>m-AY</t>
-  </si>
-  <si>
-    <t>m-AZ</t>
-  </si>
-  <si>
-    <t>m-BC</t>
-  </si>
-  <si>
-    <t>m-BD</t>
-  </si>
-  <si>
-    <t>m-BE</t>
-  </si>
-  <si>
-    <t>m-CQ</t>
-  </si>
-  <si>
-    <t>m-BG</t>
-  </si>
-  <si>
-    <t>m-BH</t>
-  </si>
-  <si>
-    <t>m-BI</t>
-  </si>
-  <si>
-    <t>m-BJ</t>
-  </si>
-  <si>
-    <t>m-BK</t>
-  </si>
-  <si>
-    <t>d-CW</t>
-  </si>
-  <si>
-    <t>d-CY</t>
-  </si>
-  <si>
-    <t>d-DF</t>
-  </si>
-  <si>
-    <t>d-DI</t>
-  </si>
-  <si>
-    <t>d-DJ</t>
-  </si>
-  <si>
-    <t>d-DK</t>
-  </si>
-  <si>
-    <t>d-DO</t>
-  </si>
-  <si>
-    <t>d-DQ</t>
-  </si>
-  <si>
-    <t>d-DS</t>
-  </si>
-  <si>
-    <t>d-DU</t>
-  </si>
-  <si>
-    <t>d-DV</t>
-  </si>
-  <si>
-    <t>d-DW</t>
-  </si>
-  <si>
-    <t>d-DX</t>
-  </si>
-  <si>
-    <t>d-DY</t>
-  </si>
-  <si>
-    <t>d-DZ</t>
-  </si>
-  <si>
-    <t>d-EF</t>
-  </si>
-  <si>
-    <t>d-EG</t>
-  </si>
-  <si>
-    <t>d-EH</t>
-  </si>
-  <si>
-    <t>d-EK</t>
-  </si>
-  <si>
-    <t>d-EN</t>
-  </si>
-  <si>
-    <t>d-EO</t>
-  </si>
-  <si>
-    <t>d-EP</t>
-  </si>
-  <si>
-    <t>d-EV</t>
-  </si>
-  <si>
-    <t>d-EY</t>
-  </si>
-  <si>
-    <t>d-FG</t>
-  </si>
-  <si>
-    <t>d-FJ</t>
-  </si>
-  <si>
-    <t>d-FY</t>
-  </si>
-  <si>
-    <t>d-GH</t>
-  </si>
-  <si>
-    <t>d-GI</t>
-  </si>
-  <si>
-    <t>d-GK</t>
-  </si>
-  <si>
-    <t>d-GO</t>
-  </si>
-  <si>
-    <t>d-GP</t>
-  </si>
-  <si>
-    <t>d-GR</t>
-  </si>
-  <si>
-    <t>d-GT</t>
-  </si>
-  <si>
-    <t>d-GU</t>
-  </si>
-  <si>
-    <t>d-GV</t>
-  </si>
-  <si>
-    <t>d-GX</t>
-  </si>
-  <si>
-    <t>d-GZ</t>
-  </si>
-  <si>
-    <t>d-HM</t>
-  </si>
-  <si>
-    <t>d-HO</t>
-  </si>
-  <si>
-    <t>Mixed water</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Drinking water</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Sample</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -262,6 +32,234 @@
   </si>
   <si>
     <t>Mg_max</t>
+  </si>
+  <si>
+    <t>M-AB</t>
+  </si>
+  <si>
+    <t>M-AC</t>
+  </si>
+  <si>
+    <t>M-AD</t>
+  </si>
+  <si>
+    <t>M-AE</t>
+  </si>
+  <si>
+    <t>M-AF</t>
+  </si>
+  <si>
+    <t>M-AG</t>
+  </si>
+  <si>
+    <t>M-AH</t>
+  </si>
+  <si>
+    <t>M-AI</t>
+  </si>
+  <si>
+    <t>M-AJ</t>
+  </si>
+  <si>
+    <t>M-AK</t>
+  </si>
+  <si>
+    <t>M-AL</t>
+  </si>
+  <si>
+    <t>M-AM</t>
+  </si>
+  <si>
+    <t>M-AN</t>
+  </si>
+  <si>
+    <t>M-AO</t>
+  </si>
+  <si>
+    <t>M-AP</t>
+  </si>
+  <si>
+    <t>M-AQ</t>
+  </si>
+  <si>
+    <t>M-AR</t>
+  </si>
+  <si>
+    <t>M-AS</t>
+  </si>
+  <si>
+    <t>M-AT</t>
+  </si>
+  <si>
+    <t>M-AU</t>
+  </si>
+  <si>
+    <t>M-AV</t>
+  </si>
+  <si>
+    <t>M-AW</t>
+  </si>
+  <si>
+    <t>M-AX</t>
+  </si>
+  <si>
+    <t>M-AY</t>
+  </si>
+  <si>
+    <t>M-AZ</t>
+  </si>
+  <si>
+    <t>M-BC</t>
+  </si>
+  <si>
+    <t>M-BD</t>
+  </si>
+  <si>
+    <t>M-BE</t>
+  </si>
+  <si>
+    <t>M-CQ</t>
+  </si>
+  <si>
+    <t>M-BG</t>
+  </si>
+  <si>
+    <t>M-BH</t>
+  </si>
+  <si>
+    <t>M-BI</t>
+  </si>
+  <si>
+    <t>M-BJ</t>
+  </si>
+  <si>
+    <t>M-BK</t>
+  </si>
+  <si>
+    <t>B-CW</t>
+  </si>
+  <si>
+    <t>B-CY</t>
+  </si>
+  <si>
+    <t>B-DF</t>
+  </si>
+  <si>
+    <t>B-DI</t>
+  </si>
+  <si>
+    <t>B-DJ</t>
+  </si>
+  <si>
+    <t>B-DK</t>
+  </si>
+  <si>
+    <t>B-DO</t>
+  </si>
+  <si>
+    <t>B-DQ</t>
+  </si>
+  <si>
+    <t>B-DS</t>
+  </si>
+  <si>
+    <t>B-DU</t>
+  </si>
+  <si>
+    <t>B-DV</t>
+  </si>
+  <si>
+    <t>B-DW</t>
+  </si>
+  <si>
+    <t>B-DX</t>
+  </si>
+  <si>
+    <t>B-DY</t>
+  </si>
+  <si>
+    <t>B-DZ</t>
+  </si>
+  <si>
+    <t>B-EF</t>
+  </si>
+  <si>
+    <t>B-EG</t>
+  </si>
+  <si>
+    <t>B-EH</t>
+  </si>
+  <si>
+    <t>B-EK</t>
+  </si>
+  <si>
+    <t>B-EN</t>
+  </si>
+  <si>
+    <t>B-EO</t>
+  </si>
+  <si>
+    <t>B-EP</t>
+  </si>
+  <si>
+    <t>B-EV</t>
+  </si>
+  <si>
+    <t>B-EY</t>
+  </si>
+  <si>
+    <t>B-FG</t>
+  </si>
+  <si>
+    <t>B-FJ</t>
+  </si>
+  <si>
+    <t>B-FY</t>
+  </si>
+  <si>
+    <t>B-GH</t>
+  </si>
+  <si>
+    <t>B-GI</t>
+  </si>
+  <si>
+    <t>B-GK</t>
+  </si>
+  <si>
+    <t>B-GO</t>
+  </si>
+  <si>
+    <t>B-GP</t>
+  </si>
+  <si>
+    <t>B-GR</t>
+  </si>
+  <si>
+    <t>B-GT</t>
+  </si>
+  <si>
+    <t>B-GU</t>
+  </si>
+  <si>
+    <t>B-GV</t>
+  </si>
+  <si>
+    <t>B-GX</t>
+  </si>
+  <si>
+    <t>B-GZ</t>
+  </si>
+  <si>
+    <t>B-HM</t>
+  </si>
+  <si>
+    <t>B-HO</t>
+  </si>
+  <si>
+    <t>Mineral-infused water</t>
+  </si>
+  <si>
+    <t>Bottled water</t>
   </si>
 </sst>
 </file>
@@ -609,8 +607,8 @@
   </sheetPr>
   <dimension ref="A1:D136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="J61" sqref="J61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -624,24 +622,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>77</v>
+        <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>78</v>
+        <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>79</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" s="8">
         <v>15.178921097113831</v>
@@ -652,10 +650,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C3" s="8">
         <v>4.3800028104823649</v>
@@ -666,10 +664,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C4" s="8">
         <v>13.739680631928239</v>
@@ -680,10 +678,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C5" s="8">
         <v>5.4495054703454038</v>
@@ -694,10 +692,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C6" s="8">
         <v>1.0681166104504509</v>
@@ -708,10 +706,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C7" s="8">
         <v>6.236138285229844E-2</v>
@@ -722,10 +720,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C8" s="8">
         <v>6.7681356374632564</v>
@@ -736,10 +734,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C9" s="8">
         <v>1.043077213593391</v>
@@ -750,10 +748,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C10" s="8">
         <v>1.094122034256912</v>
@@ -764,10 +762,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C11" s="8">
         <v>6.4223691810966974</v>
@@ -776,10 +774,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C12" s="8">
         <v>6.3839895548938923</v>
@@ -788,10 +786,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C13" s="8">
         <v>9.7558116909933332</v>
@@ -802,10 +800,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C14" s="8">
         <v>1.497101732149773</v>
@@ -814,10 +812,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C15" s="8">
         <v>13.847359901198001</v>
@@ -826,10 +824,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C16" s="8">
         <v>7.9893012425415231</v>
@@ -838,10 +836,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C17" s="8">
         <v>6.827422347769831</v>
@@ -852,10 +850,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C18" s="8">
         <v>13.085898585696111</v>
@@ -866,10 +864,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C19" s="8">
         <v>8.3508775944975788</v>
@@ -878,10 +876,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C20" s="8">
         <v>5.5320517935284146</v>
@@ -890,10 +888,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C21" s="8">
         <v>11.688726325259591</v>
@@ -904,10 +902,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C22" s="8">
         <v>4.9152217407671177</v>
@@ -918,10 +916,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C23" s="8">
         <v>18.396719575697961</v>
@@ -932,10 +930,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C24" s="8">
         <v>24.304691437102999</v>
@@ -946,10 +944,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C25" s="8">
         <v>36.035365285953453</v>
@@ -960,10 +958,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C26" s="8">
         <v>13.329393008444431</v>
@@ -974,10 +972,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C27" s="8">
         <v>10.743863417891911</v>
@@ -988,10 +986,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C28" s="8">
         <v>8.513829642461868</v>
@@ -1000,10 +998,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C29" s="8">
         <v>41.133191595946947</v>
@@ -1012,10 +1010,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C30" s="8">
         <v>68.487437416160603</v>
@@ -1026,10 +1024,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C31" s="8">
         <v>37.81983193837435</v>
@@ -1040,10 +1038,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C32" s="8">
         <v>2.869535669839038</v>
@@ -1052,10 +1050,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C33" s="8">
         <v>1.723158922221119</v>
@@ -1064,10 +1062,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C34" s="8">
         <v>8.4583229631040648</v>
@@ -1078,10 +1076,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C35" s="8">
         <v>4.90112388342488</v>
@@ -1090,10 +1088,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C36" s="8">
         <v>6.9970746004349484</v>
@@ -1104,10 +1102,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C37" s="8">
         <v>6.5230884194460268</v>
@@ -1118,10 +1116,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C38" s="8">
         <v>2.9085468773992669</v>
@@ -1132,10 +1130,10 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C39" s="8">
         <v>2.9340599325959649</v>
@@ -1146,10 +1144,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C40" s="8">
         <v>6.1063595420306651</v>
@@ -1160,10 +1158,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C41" s="8">
         <v>6.7444727112429774</v>
@@ -1174,10 +1172,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C42" s="8">
         <v>2.7891920066365459</v>
@@ -1188,10 +1186,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C43" s="8">
         <v>3.1745786832417759</v>
@@ -1202,10 +1200,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C44" s="8">
         <v>6.3360081348278712</v>
@@ -1216,10 +1214,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C45" s="8">
         <v>6.3635571729833806</v>
@@ -1230,10 +1228,10 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C46" s="8">
         <v>5.0124444795627294</v>
@@ -1244,10 +1242,10 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C47" s="8">
         <v>5.0349112301829866</v>
@@ -1258,10 +1256,10 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C48" s="8">
         <v>5.0422392017879627</v>
@@ -1272,10 +1270,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C49" s="8">
         <v>5.0364398544514373</v>
@@ -1286,10 +1284,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C50" s="8">
         <v>2.1535693322400831</v>
@@ -1300,10 +1298,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C51" s="8">
         <v>2.0022295655219842</v>
@@ -1314,10 +1312,10 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C52" s="8">
         <v>4.4108215984791004</v>
@@ -1328,10 +1326,10 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C53" s="8">
         <v>4.3060300080267542</v>
@@ -1342,10 +1340,10 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C54" s="8">
         <v>1.3044532209913009</v>
@@ -1356,10 +1354,10 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C55" s="8">
         <v>3.9795198297755578</v>
@@ -1370,10 +1368,10 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C56" s="8">
         <v>2.6655562086665472</v>
@@ -1384,10 +1382,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C57" s="8">
         <v>1.127978981639999</v>
@@ -1398,10 +1396,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C58" s="8">
         <v>2.2478086764239888</v>
@@ -1412,10 +1410,10 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C59" s="8">
         <v>2.9331940962232039</v>
@@ -1424,10 +1422,10 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C60" s="8">
         <v>1.3288014648784989</v>
@@ -1438,10 +1436,10 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C61" s="8">
         <v>1.597331729603201</v>
@@ -1452,10 +1450,10 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C62" s="8">
         <v>1.266913428488712</v>
@@ -1466,10 +1464,10 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C63" s="8">
         <v>2.0888142804532088</v>
@@ -1480,10 +1478,10 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C64" s="8">
         <v>2.7536581563731151</v>
@@ -1494,10 +1492,10 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C65" s="8">
         <v>2.7240158724280792</v>
@@ -1508,10 +1506,10 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C66" s="8">
         <v>2.557726293092474</v>
@@ -1522,10 +1520,10 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C67" s="8">
         <v>1.3486579411847139</v>
@@ -1536,10 +1534,10 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C68" s="8">
         <v>1.587646185937718</v>
@@ -1550,10 +1548,10 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C69" s="8">
         <v>1.4797934887385371</v>
@@ -1564,10 +1562,10 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C70" s="8">
         <v>2.1157075272569901</v>
@@ -1578,10 +1576,10 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C71" s="8">
         <v>3.1612026899453758</v>
@@ -1592,10 +1590,10 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C72" s="8">
         <v>12.57054165947271</v>
@@ -1606,10 +1604,10 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C73" s="8">
         <v>12.911489892646999</v>
@@ -1620,10 +1618,10 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C74" s="8">
         <v>13.690678469088891</v>
@@ -1634,10 +1632,10 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C75" s="8">
         <v>13.015754659272281</v>
@@ -1648,10 +1646,10 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C76" s="8">
         <v>12.824434330104211</v>
@@ -1662,10 +1660,10 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C77" s="8">
         <v>13.247262678508219</v>
@@ -1676,10 +1674,10 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C78" s="8">
         <v>3.8042990063613038</v>
@@ -1690,10 +1688,10 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C79" s="8">
         <v>1.535597940080708</v>
@@ -1704,10 +1702,10 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C80" s="8">
         <v>3.2567291888286221</v>
@@ -1718,10 +1716,10 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C81" s="8">
         <v>4.9996276550511798</v>
@@ -1732,10 +1730,10 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C82" s="8">
         <v>3.6904937191512568</v>
@@ -1746,10 +1744,10 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C83" s="8">
         <v>2.5459300058611851</v>
@@ -1760,10 +1758,10 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C84" s="8">
         <v>4.9662581641171446</v>
@@ -1774,10 +1772,10 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C85" s="8">
         <v>8.4483977793326801</v>
@@ -1788,10 +1786,10 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C86" s="8">
         <v>3.229540934034274</v>
@@ -1802,10 +1800,10 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C87" s="8">
         <v>3.0297666118613571</v>
@@ -1816,10 +1814,10 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C88" s="8">
         <v>3.038471395073556</v>
@@ -1830,10 +1828,10 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C89" s="8">
         <v>2.970947632404116</v>
@@ -1844,10 +1842,10 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C90" s="8">
         <v>2.943952895423025</v>
@@ -1858,10 +1856,10 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C91" s="8">
         <v>2.959066675281123</v>
@@ -1872,10 +1870,10 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C92" s="8">
         <v>2.765608340727105</v>
@@ -1886,10 +1884,10 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C93" s="8">
         <v>2.7012904675584029</v>
@@ -1900,10 +1898,10 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C94" s="8">
         <v>2.9910771299800238</v>
@@ -1914,10 +1912,10 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C95" s="8">
         <v>3.3120698331243892</v>
@@ -1928,10 +1926,10 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C96" s="8">
         <v>2.6383122194360822</v>
@@ -1942,10 +1940,10 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C97" s="8">
         <v>5.9926522581961112</v>
@@ -1956,10 +1954,10 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C98" s="8">
         <v>5.6941877631148241</v>
@@ -1970,10 +1968,10 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C99" s="8">
         <v>5.5521149877618523</v>
@@ -1984,10 +1982,10 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C100" s="8">
         <v>5.5347465129728226</v>
@@ -1998,10 +1996,10 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C101" s="8">
         <v>5.9927284947601418</v>
@@ -2012,10 +2010,10 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C102" s="8">
         <v>6.6863531057758223</v>
@@ -2026,10 +2024,10 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C103" s="8">
         <v>1.7542020079378711</v>
@@ -2040,10 +2038,10 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C104" s="8">
         <v>1.4518563416718</v>
@@ -2052,10 +2050,10 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C105" s="8">
         <v>2.173468799113476</v>
@@ -2066,10 +2064,10 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C106" s="8">
         <v>2.1191318892829778</v>
@@ -2080,10 +2078,10 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C107" s="8">
         <v>3.971496034467433</v>
@@ -2094,10 +2092,10 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C108" s="8">
         <v>1.4719416519038571</v>
@@ -2108,10 +2106,10 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C109" s="8">
         <v>4.024539801585119</v>
@@ -2122,10 +2120,10 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C110" s="8">
         <v>5.2846839203621343</v>
@@ -2136,10 +2134,10 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C111" s="8">
         <v>15.404542116503871</v>
@@ -2150,10 +2148,10 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C112" s="8">
         <v>15.42728164719453</v>
@@ -2164,10 +2162,10 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C113" s="8">
         <v>13.722797079290199</v>
@@ -2178,10 +2176,10 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C114" s="8">
         <v>4.8340096354236728</v>
@@ -2192,10 +2190,10 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C115" s="8">
         <v>29.062148944021079</v>
@@ -2206,10 +2204,10 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C116" s="8">
         <v>2.5117062350475519</v>
@@ -2220,10 +2218,10 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C117" s="8">
         <v>2.4963140448869381</v>
@@ -2234,10 +2232,10 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C118" s="8">
         <v>2.4496072981270358</v>
@@ -2248,10 +2246,10 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C119" s="8">
         <v>0.64626600728145367</v>
@@ -2262,10 +2260,10 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C120" s="8">
         <v>0.67744575057066525</v>
@@ -2276,10 +2274,10 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C121" s="8">
         <v>2.0356506230335039</v>
@@ -2290,10 +2288,10 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C122" s="8">
         <v>2.0322859078650088</v>
@@ -2304,10 +2302,10 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C123" s="8">
         <v>0.6906729533125342</v>
@@ -2318,10 +2316,10 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C124" s="8">
         <v>1.972156914605852</v>
@@ -2332,10 +2330,10 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C125" s="8">
         <v>1.923659238766634</v>
@@ -2346,10 +2344,10 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B126" s="6" t="s">
         <v>76</v>
-      </c>
-      <c r="B126" s="6" t="s">
-        <v>73</v>
       </c>
       <c r="C126" s="8">
         <v>5.6656881260930296</v>
@@ -2360,10 +2358,10 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C127" s="8">
         <v>3.687410445108156</v>
@@ -2374,10 +2372,10 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C128" s="8">
         <v>3.1608553592518831</v>
@@ -2388,10 +2386,10 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C129" s="8">
         <v>2.9146210770822889</v>
@@ -2402,10 +2400,10 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C130" s="8">
         <v>2.903011189591433</v>
@@ -2416,10 +2414,10 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C131" s="8">
         <v>3.1278645678159198</v>
@@ -2430,10 +2428,10 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C132" s="8">
         <v>3.085592988282809</v>
@@ -2444,10 +2442,10 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C133" s="8">
         <v>2.94464045713667</v>
@@ -2458,10 +2456,10 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C134" s="8">
         <v>2.965278168588096</v>
@@ -2472,10 +2470,10 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C135" s="8">
         <v>2.9385793081147602</v>
@@ -2486,10 +2484,10 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C136" s="8">
         <v>1.40213144637179</v>
